--- a/data/metadata/Informe-03-030077-A-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030077-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>residencia-continente-codigo</t>
   </si>
@@ -61,7 +61,7 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-dimension:residencia-continente-nombre</t>
+    <t>iaest-measure:residencia-continente-nombre</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
@@ -70,16 +70,19 @@
     <t>iaest-measure:inscripcion-municipio-nombre</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:residencia-area-nombre</t>
+    <t>iaest-measure:inscripcion-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:inscripcion-municipio-estrato</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-area-nombre</t>
   </si>
   <si>
     <t>iaest-measure:residencia-pais-nombre</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>dim</t>
@@ -94,22 +97,7 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-continente-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-area-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -239,19 +227,19 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>14</v>
@@ -262,40 +250,40 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>14</v>
@@ -306,40 +294,40 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>14</v>
@@ -347,16 +335,7 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030077-A-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030077-A-TM-TP.xlsx
@@ -11,90 +11,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
-  <si>
-    <t>residencia-continente-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>residencia-continente-nombre</t>
-  </si>
-  <si>
-    <t>inscripcion-municipio-codigo</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>inscripcion-provincia-codigo</t>
-  </si>
-  <si>
-    <t>inscripcion-municipio-nombre</t>
-  </si>
-  <si>
-    <t>inscripcion-provincia-nombre</t>
-  </si>
-  <si>
-    <t>inscripcion-municipio-estrato</t>
-  </si>
-  <si>
-    <t>residencia-area-nombre</t>
-  </si>
-  <si>
-    <t>residencia-pais-nombre</t>
-  </si>
-  <si>
-    <t>residencia-pais-codigo</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>residencia-area-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+  <si>
+    <t>Residencia continente nombre</t>
+  </si>
+  <si>
+    <t>Residencia área nombre</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Residencia país nombre</t>
+  </si>
+  <si>
+    <t>Residencia continente código</t>
+  </si>
+  <si>
+    <t>Residencia área código</t>
+  </si>
+  <si>
+    <t>Inscripción municipio código</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Inscripcion municipio estrato</t>
+  </si>
+  <si>
+    <t>Inscripción municipio nombre</t>
+  </si>
+  <si>
+    <t>Inscripción provincia nombre</t>
+  </si>
+  <si>
+    <t>Inscripción provincia código</t>
+  </si>
+  <si>
+    <t>Residencia país código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-continente-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-area-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-pais-nombre</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:inscripcion-municipio-estrato</t>
+  </si>
+  <si>
+    <t>iaest-measure:inscripcion-municipio-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:inscripcion-provincia-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-continente-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas</t>
-  </si>
-  <si>
-    <t>iaest-measure:inscripcion-municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:inscripcion-provincia-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:inscripcion-municipio-estrato</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-area-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-pais-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -212,13 +215,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -236,62 +239,62 @@
         <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -300,42 +303,42 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
